--- a/resultados/northface/northface_final.xlsx
+++ b/resultados/northface/northface_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://patagonia-my.sharepoint.com/personal/cristian_gutierrez_patagonia_com/Documents/Cristian/git/selenium/retailscrapper/resultados/northface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian Gutierrez\OneDrive - Patagonia\Cristian\git\selenium\retailscrapper\resultados\northface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AE2ABECA0FB168EA17F21F1002BBE63750293340" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626B8810-310F-47F0-927F-2DC13EC62645}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE457B14-2A0E-4238-96E3-E7D9E8ECC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2820" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="993">
   <si>
     <t>nombre producto</t>
   </si>
@@ -3008,7 +3008,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3030,6 +3030,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3071,12 +3077,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3416,17 +3426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C609" sqref="C609"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -3436,7 +3445,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3449,11 +3458,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3466,11 +3475,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3483,11 +3492,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3500,11 +3509,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3517,11 +3526,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3534,11 +3543,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3551,11 +3560,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3568,11 +3577,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3585,11 +3594,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3602,11 +3611,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3619,11 +3628,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3636,11 +3645,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3653,11 +3662,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3670,11 +3679,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3687,11 +3696,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3704,11 +3713,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3721,11 +3730,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3738,11 +3747,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3755,11 +3764,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3772,11 +3781,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3789,11 +3798,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3806,11 +3815,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3823,11 +3832,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3840,11 +3849,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3857,11 +3866,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3874,11 +3883,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3891,11 +3900,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3908,11 +3917,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3925,11 +3934,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3942,11 +3951,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3959,11 +3968,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3976,11 +3985,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3993,11 +4002,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4010,11 +4019,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4027,11 +4036,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4044,11 +4053,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4061,11 +4070,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4078,11 +4087,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4095,11 +4104,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4112,11 +4121,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4129,11 +4138,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4146,11 +4155,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4163,11 +4172,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4180,11 +4189,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4197,11 +4206,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4214,11 +4223,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4231,11 +4240,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4248,11 +4257,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4265,11 +4274,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4282,11 +4291,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4299,11 +4308,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -4316,11 +4325,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4333,11 +4342,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4350,11 +4359,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4367,11 +4376,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -4384,11 +4393,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4401,11 +4410,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -4418,11 +4427,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4435,11 +4444,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -4452,11 +4461,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -4469,11 +4478,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -4486,11 +4495,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4503,11 +4512,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -4520,11 +4529,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -4537,11 +4546,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -4554,11 +4563,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -4571,11 +4580,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -4588,11 +4597,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -4605,11 +4614,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4622,11 +4631,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>42</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -4639,11 +4648,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -4656,11 +4665,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -4673,11 +4682,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -4690,11 +4699,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -4707,11 +4716,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4724,11 +4733,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4741,11 +4750,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>43</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -4758,11 +4767,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4775,11 +4784,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4792,11 +4801,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4809,11 +4818,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>43</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4826,11 +4835,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4843,11 +4852,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>43</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -4860,11 +4869,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4877,11 +4886,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>43</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4894,11 +4903,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -4911,11 +4920,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4928,11 +4937,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>46</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -4945,11 +4954,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4962,11 +4971,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>47</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4979,11 +4988,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -4996,11 +5005,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -5013,11 +5022,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -5030,11 +5039,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5047,11 +5056,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -5064,11 +5073,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -5081,11 +5090,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>51</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -5098,11 +5107,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>52</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -5115,11 +5124,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>53</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -5132,11 +5141,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>54</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5149,11 +5158,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>55</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -5166,11 +5175,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>56</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -5183,11 +5192,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>57</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -5200,11 +5209,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>58</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -5217,11 +5226,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5234,11 +5243,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>60</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -5251,11 +5260,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>61</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -5268,11 +5277,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>61</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -5285,11 +5294,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>62</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -5302,11 +5311,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>63</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -5319,11 +5328,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>64</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -5336,11 +5345,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>64</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -5353,11 +5362,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>65</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -5370,11 +5379,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>66</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -5387,11 +5396,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>67</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -5404,11 +5413,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>68</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -5421,11 +5430,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>69</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -5438,11 +5447,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>69</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -5455,11 +5464,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -5472,11 +5481,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>70</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -5489,11 +5498,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>71</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -5506,11 +5515,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>72</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -5523,11 +5532,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>73</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -5540,11 +5549,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -5557,11 +5566,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>74</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -5574,11 +5583,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -5591,11 +5600,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -5608,11 +5617,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>75</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -5625,11 +5634,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>76</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -5642,11 +5651,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>76</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -5659,11 +5668,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>77</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -5676,11 +5685,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>77</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -5693,11 +5702,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>78</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -5710,11 +5719,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>78</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -5727,11 +5736,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>79</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -5744,11 +5753,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>80</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -5761,11 +5770,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>81</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -5778,11 +5787,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -5795,11 +5804,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -5812,11 +5821,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>84</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -5829,11 +5838,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>85</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -5846,11 +5855,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>86</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -5863,11 +5872,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>87</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -5880,11 +5889,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -5897,11 +5906,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -5914,11 +5923,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>89</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -5931,11 +5940,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>26</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -5948,11 +5957,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>26</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -5965,11 +5974,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -5982,11 +5991,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>90</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -5999,11 +6008,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>90</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -6016,11 +6025,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>90</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -6033,11 +6042,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>90</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -6050,11 +6059,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>91</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -6067,11 +6076,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -6084,11 +6093,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>92</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -6101,11 +6110,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>92</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -6118,11 +6127,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>92</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -6135,11 +6144,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>92</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -6152,11 +6161,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>93</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -6169,11 +6178,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>94</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -6186,11 +6195,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>95</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -6203,11 +6212,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>95</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -6220,11 +6229,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>95</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -6237,11 +6246,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>96</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -6254,11 +6263,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>97</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -6271,11 +6280,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>98</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -6288,11 +6297,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>99</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -6305,11 +6314,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>100</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -6322,11 +6331,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>100</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -6339,11 +6348,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>100</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -6356,11 +6365,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>101</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -6373,11 +6382,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>102</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -6390,11 +6399,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>103</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -6407,11 +6416,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -6424,10 +6433,13 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>104</v>
       </c>
+      <c r="B177" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="C177" s="2" t="s">
         <v>565</v>
       </c>
@@ -6438,11 +6450,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>105</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -6455,11 +6467,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>106</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -6472,11 +6484,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>106</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -6489,11 +6501,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>106</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -6506,11 +6518,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>106</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -6523,11 +6535,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>107</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -6540,11 +6552,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>107</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -6557,11 +6569,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>107</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -6574,11 +6586,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>108</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -6591,11 +6603,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>108</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -6608,11 +6620,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>109</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -6625,11 +6637,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>109</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -6642,11 +6654,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>109</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -6659,11 +6671,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>45</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -6676,11 +6688,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>45</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -6693,11 +6705,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>45</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -6710,11 +6722,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>110</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -6727,11 +6739,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>110</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -6744,11 +6756,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>110</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -6761,11 +6773,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>110</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -6778,11 +6790,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>111</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -6795,11 +6807,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>111</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -6812,11 +6824,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>111</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -6829,11 +6841,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>111</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -6846,11 +6858,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>112</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -6863,11 +6875,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>112</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -6880,11 +6892,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>113</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -6897,11 +6909,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>113</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -6914,11 +6926,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>114</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -6931,11 +6943,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>114</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -6948,11 +6960,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>114</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -6965,11 +6977,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>115</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -6982,11 +6994,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>116</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -6999,11 +7011,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>117</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -7016,11 +7028,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>118</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -7033,11 +7045,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>118</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -7050,11 +7062,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>119</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -7067,11 +7079,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>120</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -7084,11 +7096,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>120</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -7101,11 +7113,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>121</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -7118,11 +7130,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>122</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -7135,11 +7147,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>123</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -7152,11 +7164,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>124</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -7169,11 +7181,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -7186,11 +7198,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -7203,11 +7215,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>125</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -7220,11 +7232,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>125</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -7237,11 +7249,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>126</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -7254,11 +7266,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>38</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -7271,11 +7283,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>127</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -7288,11 +7300,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>128</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -7305,11 +7317,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>129</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -7322,11 +7334,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>39</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -7339,11 +7351,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>41</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -7356,11 +7368,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>44</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -7373,11 +7385,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>130</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -7390,11 +7402,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>131</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -7407,11 +7419,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>132</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -7424,11 +7436,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>133</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -7441,11 +7453,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>134</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -7458,11 +7470,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>135</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -7475,11 +7487,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>135</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -7492,11 +7504,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>60</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -7509,11 +7521,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>60</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -7526,11 +7538,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>61</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -7543,11 +7555,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>62</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -7560,11 +7572,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>136</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -7577,11 +7589,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>137</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -7594,11 +7606,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>138</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -7611,11 +7623,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>138</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -7628,11 +7640,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>139</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -7645,11 +7657,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -7662,11 +7674,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>140</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -7679,11 +7691,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>28</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -7696,11 +7708,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>28</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -7713,11 +7725,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>63</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -7730,11 +7742,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>63</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -7747,11 +7759,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>64</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -7764,11 +7776,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>141</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -7781,11 +7793,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>142</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -7798,11 +7810,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>14</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -7815,11 +7827,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>143</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -7832,11 +7844,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>144</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -7849,11 +7861,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>145</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -7866,11 +7878,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>68</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -7883,11 +7895,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>146</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -7900,11 +7912,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>146</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -7917,11 +7929,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>147</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -7934,11 +7946,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>148</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -7951,11 +7963,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>149</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -7968,11 +7980,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>78</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -7985,11 +7997,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>81</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -8002,11 +8014,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>81</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -8019,11 +8031,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>81</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -8036,11 +8048,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>150</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -8053,11 +8065,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>150</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -8070,11 +8082,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>150</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -8087,11 +8099,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>151</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -8104,11 +8116,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>151</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -8121,11 +8133,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>27</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -8138,11 +8150,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>26</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -8155,11 +8167,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>152</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -8172,11 +8184,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>153</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -8189,11 +8201,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>102</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -8206,11 +8218,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>102</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -8223,11 +8235,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>154</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -8240,11 +8252,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>14</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C284" s="2" t="s">
@@ -8257,11 +8269,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>14</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -8274,11 +8286,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>155</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -8291,11 +8303,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>155</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -8308,11 +8320,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>155</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -8325,11 +8337,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>155</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -8342,11 +8354,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>156</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -8359,11 +8371,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>157</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -8376,11 +8388,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>158</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -8393,11 +8405,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>158</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -8410,11 +8422,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>159</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -8427,11 +8439,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>160</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -8444,11 +8456,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>161</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -8461,11 +8473,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>161</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -8478,11 +8490,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>161</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -8495,11 +8507,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>162</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -8512,11 +8524,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>162</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -8529,11 +8541,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>163</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -8546,11 +8558,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>164</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -8563,11 +8575,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>164</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -8580,11 +8592,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>164</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -8597,11 +8609,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>164</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -8614,11 +8626,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>165</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -8631,11 +8643,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>166</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -8648,11 +8660,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>167</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -8665,11 +8677,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>168</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -8682,11 +8694,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>168</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -8699,11 +8711,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>169</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -8716,11 +8728,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>169</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -8733,11 +8745,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>170</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C313" s="2" t="s">
@@ -8750,11 +8762,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>171</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -8767,11 +8779,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>172</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -8784,11 +8796,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>173</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -8801,11 +8813,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>173</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -8818,11 +8830,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>174</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -8835,11 +8847,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>174</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C319" s="2" t="s">
@@ -8852,11 +8864,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>174</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -8869,11 +8881,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>174</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -8886,11 +8898,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>175</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -8903,11 +8915,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>176</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -8920,11 +8932,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>177</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C324" s="2" t="s">
@@ -8937,11 +8949,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>177</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -8954,11 +8966,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>178</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C326" s="2" t="s">
@@ -8971,11 +8983,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>179</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -8988,11 +9000,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>179</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C328" s="2" t="s">
@@ -9005,11 +9017,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>179</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -9022,11 +9034,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>180</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C330" s="2" t="s">
@@ -9039,11 +9051,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>181</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -9056,11 +9068,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>182</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C332" s="2" t="s">
@@ -9073,11 +9085,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>182</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -9090,11 +9102,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>155</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C334" s="2" t="s">
@@ -9107,11 +9119,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>155</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -9124,11 +9136,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>183</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -9141,11 +9153,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>183</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C337" s="2" t="s">
@@ -9158,11 +9170,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>184</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C338" s="2" t="s">
@@ -9175,11 +9187,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>184</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C339" s="2" t="s">
@@ -9192,11 +9204,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>185</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C340" s="2" t="s">
@@ -9209,11 +9221,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>185</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C341" s="2" t="s">
@@ -9226,11 +9238,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -9243,11 +9255,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>39</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -9260,11 +9272,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>40</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -9277,11 +9289,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>41</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C345" s="2" t="s">
@@ -9294,11 +9306,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>42</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -9311,11 +9323,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>42</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C347" s="2" t="s">
@@ -9328,11 +9340,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>42</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -9345,11 +9357,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>42</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -9362,11 +9374,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>42</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C350" s="2" t="s">
@@ -9379,11 +9391,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>186</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -9396,11 +9408,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>43</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C352" s="2" t="s">
@@ -9413,11 +9425,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>43</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C353" s="2" t="s">
@@ -9430,11 +9442,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>43</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C354" s="2" t="s">
@@ -9447,11 +9459,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>43</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C355" s="2" t="s">
@@ -9464,11 +9476,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>43</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C356" s="2" t="s">
@@ -9481,11 +9493,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>43</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -9498,11 +9510,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>43</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C358" s="2" t="s">
@@ -9515,11 +9527,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>43</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -9532,11 +9544,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>43</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -9549,11 +9561,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>43</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C361" s="2" t="s">
@@ -9566,11 +9578,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>43</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C362" s="2" t="s">
@@ -9583,11 +9595,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>44</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C363" s="2" t="s">
@@ -9600,11 +9612,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>45</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -9617,11 +9629,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>46</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C365" s="2" t="s">
@@ -9634,11 +9646,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>47</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="2" t="s">
@@ -9651,11 +9663,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>47</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C367" s="2" t="s">
@@ -9668,11 +9680,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>48</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="2" t="s">
@@ -9685,11 +9697,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>48</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C369" s="2" t="s">
@@ -9702,11 +9714,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>49</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C370" s="2" t="s">
@@ -9719,11 +9731,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>49</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C371" s="2" t="s">
@@ -9736,11 +9748,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>50</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C372" s="2" t="s">
@@ -9753,11 +9765,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>50</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C373" s="2" t="s">
@@ -9770,11 +9782,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>51</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C374" s="2" t="s">
@@ -9787,11 +9799,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>187</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C375" s="2" t="s">
@@ -9804,11 +9816,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>187</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C376" s="2" t="s">
@@ -9821,11 +9833,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>187</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C377" s="2" t="s">
@@ -9838,11 +9850,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>188</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C378" s="2" t="s">
@@ -9855,11 +9867,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>189</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C379" s="2" t="s">
@@ -9872,11 +9884,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>54</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -9889,11 +9901,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>55</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -9906,11 +9918,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>190</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -9923,11 +9935,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>56</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C383" s="2" t="s">
@@ -9940,11 +9952,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>57</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C384" s="2" t="s">
@@ -9957,11 +9969,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>58</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -9974,11 +9986,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>70</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C386" s="2" t="s">
@@ -9991,11 +10003,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>70</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C387" s="2" t="s">
@@ -10008,11 +10020,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>71</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -10025,11 +10037,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>72</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C389" s="2" t="s">
@@ -10042,11 +10054,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>73</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C390" s="2" t="s">
@@ -10059,11 +10071,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>191</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C391" s="2" t="s">
@@ -10076,11 +10088,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>192</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C392" s="2" t="s">
@@ -10093,11 +10105,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>193</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -10110,11 +10122,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>194</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C394" s="2" t="s">
@@ -10127,11 +10139,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>194</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C395" s="2" t="s">
@@ -10144,11 +10156,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>195</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C396" s="2" t="s">
@@ -10161,11 +10173,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>195</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C397" s="2" t="s">
@@ -10178,11 +10190,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>196</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C398" s="2" t="s">
@@ -10195,11 +10207,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>196</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C399" s="2" t="s">
@@ -10212,11 +10224,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>197</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C400" s="2" t="s">
@@ -10229,11 +10241,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>197</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C401" s="2" t="s">
@@ -10246,11 +10258,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>79</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C402" s="2" t="s">
@@ -10263,11 +10275,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>198</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C403" s="2" t="s">
@@ -10280,11 +10292,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>198</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C404" s="2" t="s">
@@ -10297,11 +10309,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>198</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C405" s="2" t="s">
@@ -10314,11 +10326,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>199</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C406" s="2" t="s">
@@ -10331,11 +10343,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>199</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C407" s="2" t="s">
@@ -10348,11 +10360,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>199</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -10365,11 +10377,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>200</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C409" s="2" t="s">
@@ -10382,11 +10394,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>200</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C410" s="2" t="s">
@@ -10399,11 +10411,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>200</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C411" s="2" t="s">
@@ -10416,11 +10428,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>166</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -10433,11 +10445,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>166</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C413" s="2" t="s">
@@ -10450,11 +10462,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>201</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C414" s="2" t="s">
@@ -10467,11 +10479,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>201</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C415" s="2" t="s">
@@ -10484,11 +10496,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>202</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C416" s="2" t="s">
@@ -10501,11 +10513,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>203</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C417" s="2" t="s">
@@ -10518,11 +10530,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>203</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C418" s="2" t="s">
@@ -10535,11 +10547,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>167</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -10552,11 +10564,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>167</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -10569,11 +10581,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>167</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -10586,11 +10598,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>167</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C422" s="2" t="s">
@@ -10603,11 +10615,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>168</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C423" s="2" t="s">
@@ -10620,11 +10632,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>168</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C424" s="2" t="s">
@@ -10637,11 +10649,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>204</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C425" s="2" t="s">
@@ -10654,11 +10666,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>205</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C426" s="2" t="s">
@@ -10671,11 +10683,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>205</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C427" s="2" t="s">
@@ -10688,11 +10700,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>206</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C428" s="2" t="s">
@@ -10705,11 +10717,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>92</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C429" s="2" t="s">
@@ -10722,11 +10734,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>92</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -10739,11 +10751,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>92</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -10756,11 +10768,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>92</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -10773,11 +10785,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>92</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C433" s="2" t="s">
@@ -10790,11 +10802,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>207</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C434" s="2" t="s">
@@ -10807,11 +10819,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>94</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -10824,11 +10836,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>95</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -10841,11 +10853,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>95</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -10858,11 +10870,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>95</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -10875,11 +10887,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>208</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -10892,11 +10904,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>208</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -10909,11 +10921,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>96</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -10926,11 +10938,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>96</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C442" s="2" t="s">
@@ -10943,11 +10955,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>209</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -10960,11 +10972,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>209</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -10977,11 +10989,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>209</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -10994,11 +11006,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>209</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C446" s="2" t="s">
@@ -11011,11 +11023,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>210</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -11028,11 +11040,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>210</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C448" s="2" t="s">
@@ -11045,11 +11057,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>211</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -11062,11 +11074,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>211</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -11079,11 +11091,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>212</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -11096,11 +11108,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>213</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -11113,11 +11125,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>213</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -11130,11 +11142,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>214</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C454" s="2" t="s">
@@ -11147,11 +11159,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>158</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C455" s="2" t="s">
@@ -11164,11 +11176,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>215</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C456" s="2" t="s">
@@ -11181,11 +11193,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>215</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C457" s="2" t="s">
@@ -11198,11 +11210,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>216</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -11215,11 +11227,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>217</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -11232,11 +11244,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>218</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -11249,11 +11261,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>219</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C461" s="2" t="s">
@@ -11266,11 +11278,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>220</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C462" s="2" t="s">
@@ -11283,11 +11295,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>220</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C463" s="2" t="s">
@@ -11300,11 +11312,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>220</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -11317,11 +11329,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>221</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C465" s="2" t="s">
@@ -11334,11 +11346,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>221</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -11351,11 +11363,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>222</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C467" s="2" t="s">
@@ -11368,11 +11380,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>222</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -11385,11 +11397,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>222</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C469" s="2" t="s">
@@ -11402,11 +11414,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>222</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C470" s="2" t="s">
@@ -11419,11 +11431,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>45</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C471" s="2" t="s">
@@ -11436,11 +11448,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>45</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C472" s="2" t="s">
@@ -11453,11 +11465,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>45</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C473" s="2" t="s">
@@ -11470,11 +11482,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>110</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C474" s="2" t="s">
@@ -11487,11 +11499,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>110</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C475" s="2" t="s">
@@ -11504,11 +11516,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>110</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C476" s="2" t="s">
@@ -11521,11 +11533,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>110</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C477" s="2" t="s">
@@ -11538,11 +11550,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>164</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C478" s="2" t="s">
@@ -11555,11 +11567,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>223</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C479" s="2" t="s">
@@ -11572,11 +11584,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>223</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C480" s="2" t="s">
@@ -11589,11 +11601,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>224</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C481" s="2" t="s">
@@ -11606,11 +11618,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>225</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C482" s="2" t="s">
@@ -11623,11 +11635,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>225</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C483" s="2" t="s">
@@ -11640,11 +11652,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>225</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C484" s="2" t="s">
@@ -11657,11 +11669,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>226</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C485" s="2" t="s">
@@ -11674,11 +11686,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>115</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C486" s="2" t="s">
@@ -11691,11 +11703,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>227</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C487" s="2" t="s">
@@ -11708,11 +11720,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>228</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C488" s="2" t="s">
@@ -11725,11 +11737,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>229</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C489" s="2" t="s">
@@ -11742,11 +11754,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>120</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C490" s="2" t="s">
@@ -11759,11 +11771,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>120</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -11776,11 +11788,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>121</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C492" s="2" t="s">
@@ -11793,11 +11805,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>123</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C493" s="2" t="s">
@@ -11810,11 +11822,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>124</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C494" s="2" t="s">
@@ -11827,11 +11839,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>230</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C495" s="2" t="s">
@@ -11844,11 +11856,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>230</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C496" s="2" t="s">
@@ -11861,11 +11873,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>231</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C497" s="2" t="s">
@@ -11878,11 +11890,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>185</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C498" s="2" t="s">
@@ -11895,11 +11907,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>128</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C499" s="2" t="s">
@@ -11912,11 +11924,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>129</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C500" s="2" t="s">
@@ -11929,11 +11941,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>39</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C501" s="2" t="s">
@@ -11946,11 +11958,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>41</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C502" s="2" t="s">
@@ -11963,11 +11975,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>44</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C503" s="2" t="s">
@@ -11980,11 +11992,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>130</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C504" s="2" t="s">
@@ -11997,11 +12009,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>232</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -12014,11 +12026,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>232</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C506" s="2" t="s">
@@ -12031,11 +12043,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>232</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C507" s="2" t="s">
@@ -12048,11 +12060,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>233</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C508" s="2" t="s">
@@ -12065,11 +12077,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>233</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C509" s="2" t="s">
@@ -12082,11 +12094,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>234</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C510" s="2" t="s">
@@ -12099,11 +12111,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>235</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C511" s="2" t="s">
@@ -12116,11 +12128,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>197</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C512" s="2" t="s">
@@ -12133,11 +12145,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>197</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C513" s="2" t="s">
@@ -12150,11 +12162,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>236</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C514" s="2" t="s">
@@ -12167,11 +12179,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>166</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C515" s="2" t="s">
@@ -12184,11 +12196,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>237</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C516" s="2" t="s">
@@ -12201,11 +12213,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>205</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C517" s="2" t="s">
@@ -12218,11 +12230,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>238</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C518" s="2" t="s">
@@ -12235,11 +12247,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>239</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C519" s="2" t="s">
@@ -12252,11 +12264,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>208</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C520" s="2" t="s">
@@ -12269,11 +12281,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>240</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C521" s="2" t="s">
@@ -12286,11 +12298,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>240</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C522" s="2" t="s">
@@ -12303,11 +12315,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>241</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C523" s="2" t="s">
@@ -12320,11 +12332,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>242</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C524" s="2" t="s">
@@ -12337,11 +12349,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>96</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C525" s="2" t="s">
@@ -12354,11 +12366,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>243</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C526" s="2" t="s">
@@ -12371,11 +12383,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>243</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C527" s="2" t="s">
@@ -12388,11 +12400,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>244</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C528" s="2" t="s">
@@ -12405,11 +12417,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>245</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C529" s="2" t="s">
@@ -12422,11 +12434,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>246</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C530" s="2" t="s">
@@ -12439,11 +12451,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>247</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C531" s="2" t="s">
@@ -12456,11 +12468,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>248</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C532" s="2" t="s">
@@ -12473,11 +12485,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>210</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C533" s="2" t="s">
@@ -12490,11 +12502,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>210</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C534" s="2" t="s">
@@ -12507,11 +12519,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>211</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C535" s="2" t="s">
@@ -12524,11 +12536,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>212</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C536" s="2" t="s">
@@ -12541,11 +12553,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>249</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C537" s="2" t="s">
@@ -12558,11 +12570,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>250</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C538" s="2" t="s">
@@ -12575,11 +12587,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>251</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C539" s="2" t="s">
@@ -12592,11 +12604,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>213</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -12609,11 +12621,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>252</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C541" s="2" t="s">
@@ -12626,11 +12638,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>253</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C542" s="2" t="s">
@@ -12643,11 +12655,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>157</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C543" s="2" t="s">
@@ -12660,11 +12672,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>254</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C544" s="2" t="s">
@@ -12677,11 +12689,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>255</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C545" s="2" t="s">
@@ -12694,11 +12706,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>256</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C546" s="2" t="s">
@@ -12711,11 +12723,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>257</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C547" s="2" t="s">
@@ -12728,11 +12740,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>257</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C548" s="2" t="s">
@@ -12745,11 +12757,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>257</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C549" s="2" t="s">
@@ -12762,11 +12774,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>258</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C550" s="2" t="s">
@@ -12779,11 +12791,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>259</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C551" s="2" t="s">
@@ -12796,11 +12808,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>260</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C552" s="2" t="s">
@@ -12813,11 +12825,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>261</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C553" s="2" t="s">
@@ -12830,11 +12842,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>261</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C554" s="2" t="s">
@@ -12847,11 +12859,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>261</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C555" s="2" t="s">
@@ -12864,11 +12876,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>262</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C556" s="2" t="s">
@@ -12881,11 +12893,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>262</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C557" s="2" t="s">
@@ -12898,11 +12910,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>262</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C558" s="2" t="s">
@@ -12915,11 +12927,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>263</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C559" s="2" t="s">
@@ -12932,11 +12944,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>263</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C560" s="2" t="s">
@@ -12949,11 +12961,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>264</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C561" s="2" t="s">
@@ -12966,11 +12978,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>264</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C562" s="2" t="s">
@@ -12983,11 +12995,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>264</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C563" s="2" t="s">
@@ -13000,11 +13012,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>264</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C564" s="2" t="s">
@@ -13017,11 +13029,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>265</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C565" s="2" t="s">
@@ -13034,11 +13046,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>265</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C566" s="2" t="s">
@@ -13051,11 +13063,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>266</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C567" s="2" t="s">
@@ -13068,11 +13080,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>267</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C568" s="2" t="s">
@@ -13085,11 +13097,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>268</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C569" s="2" t="s">
@@ -13102,11 +13114,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>268</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C570" s="2" t="s">
@@ -13119,11 +13131,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>269</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C571" s="2" t="s">
@@ -13136,11 +13148,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>269</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C572" s="2" t="s">
@@ -13153,11 +13165,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>270</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C573" s="2" t="s">
@@ -13170,11 +13182,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>271</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C574" s="2" t="s">
@@ -13187,11 +13199,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>271</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C575" s="2" t="s">
@@ -13204,11 +13216,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>271</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C576" s="2" t="s">
@@ -13221,11 +13233,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>272</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C577" s="2" t="s">
@@ -13238,11 +13250,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>272</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C578" s="2" t="s">
@@ -13255,11 +13267,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>273</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C579" s="2" t="s">
@@ -13272,11 +13284,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>273</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C580" s="2" t="s">
@@ -13289,11 +13301,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>273</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -13306,11 +13318,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>274</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C582" s="2" t="s">
@@ -13323,11 +13335,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>275</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C583" s="2" t="s">
@@ -13340,11 +13352,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>276</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C584" s="2" t="s">
@@ -13357,11 +13369,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>277</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C585" s="2" t="s">
@@ -13374,11 +13386,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>258</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C586" s="2" t="s">
@@ -13391,11 +13403,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>259</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C587" s="2" t="s">
@@ -13408,11 +13420,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>261</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C588" s="2" t="s">
@@ -13425,11 +13437,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>278</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C589" s="2" t="s">
@@ -13442,11 +13454,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>279</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C590" s="2" t="s">
@@ -13459,11 +13471,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>279</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C591" s="2" t="s">
@@ -13476,11 +13488,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>280</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C592" s="2" t="s">
@@ -13493,11 +13505,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>281</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C593" s="2" t="s">
@@ -13510,11 +13522,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>281</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C594" s="2" t="s">
@@ -13531,7 +13543,7 @@
       <c r="A595" t="s">
         <v>282</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C595" s="2" t="s">
@@ -13548,7 +13560,7 @@
       <c r="A596" t="s">
         <v>282</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C596" s="2" t="s">
@@ -13565,7 +13577,7 @@
       <c r="A597" t="s">
         <v>283</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C597" s="2" t="s">
@@ -13582,7 +13594,7 @@
       <c r="A598" t="s">
         <v>283</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C598" s="2" t="s">
@@ -13599,7 +13611,7 @@
       <c r="A599" t="s">
         <v>284</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C599" s="2" t="s">
@@ -13616,7 +13628,7 @@
       <c r="A600" t="s">
         <v>284</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C600" s="2" t="s">
@@ -13633,7 +13645,7 @@
       <c r="A601" t="s">
         <v>70</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C601" s="2" t="s">
@@ -13650,7 +13662,7 @@
       <c r="A602" t="s">
         <v>70</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C602" s="2" t="s">
@@ -13667,7 +13679,7 @@
       <c r="A603" t="s">
         <v>71</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C603" s="2" t="s">
@@ -13684,7 +13696,7 @@
       <c r="A604" t="s">
         <v>71</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C604" s="2" t="s">
@@ -13701,7 +13713,7 @@
       <c r="A605" t="s">
         <v>71</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C605" s="2" t="s">
@@ -13718,7 +13730,7 @@
       <c r="A606" t="s">
         <v>71</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C606" s="2" t="s">
@@ -13735,7 +13747,7 @@
       <c r="A607" t="s">
         <v>71</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C607" s="2" t="s">
@@ -13752,7 +13764,7 @@
       <c r="A608" t="s">
         <v>71</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C608" s="2" t="s">
@@ -13769,7 +13781,7 @@
       <c r="A609" t="s">
         <v>285</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C609" s="2" t="s">
@@ -13786,7 +13798,7 @@
       <c r="A610" t="s">
         <v>285</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C610" s="2" t="s">
@@ -13803,7 +13815,7 @@
       <c r="A611" t="s">
         <v>285</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C611" s="2" t="s">
@@ -13820,7 +13832,7 @@
       <c r="A612" t="s">
         <v>285</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C612" s="2" t="s">
@@ -13837,7 +13849,7 @@
       <c r="A613" t="s">
         <v>285</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C613" s="2" t="s">
@@ -13854,7 +13866,7 @@
       <c r="A614" t="s">
         <v>285</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C614" s="2" t="s">
@@ -13871,7 +13883,7 @@
       <c r="A615" t="s">
         <v>286</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C615" s="2" t="s">
@@ -13888,7 +13900,7 @@
       <c r="A616" t="s">
         <v>286</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C616" s="2" t="s">
@@ -13905,7 +13917,7 @@
       <c r="A617" t="s">
         <v>286</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C617" s="2" t="s">
@@ -13922,7 +13934,7 @@
       <c r="A618" t="s">
         <v>287</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C618" s="2" t="s">
@@ -13939,7 +13951,7 @@
       <c r="A619" t="s">
         <v>288</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C619" s="2" t="s">
@@ -13956,7 +13968,7 @@
       <c r="A620" t="s">
         <v>288</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C620" s="2" t="s">
@@ -13973,7 +13985,7 @@
       <c r="A621" t="s">
         <v>289</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C621" s="2" t="s">
@@ -13990,7 +14002,7 @@
       <c r="A622" t="s">
         <v>289</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C622" s="2" t="s">
@@ -14007,7 +14019,7 @@
       <c r="A623" t="s">
         <v>289</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C623" s="2" t="s">
@@ -14024,7 +14036,7 @@
       <c r="A624" t="s">
         <v>289</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C624" s="2" t="s">
@@ -14041,7 +14053,7 @@
       <c r="A625" t="s">
         <v>289</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C625" s="2" t="s">
@@ -14058,7 +14070,7 @@
       <c r="A626" t="s">
         <v>289</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C626" s="2" t="s">
@@ -14075,7 +14087,7 @@
       <c r="A627" t="s">
         <v>290</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C627" s="2" t="s">
@@ -14092,7 +14104,7 @@
       <c r="A628" t="s">
         <v>291</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C628" s="2" t="s">
@@ -14109,7 +14121,7 @@
       <c r="A629" t="s">
         <v>292</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C629" s="2" t="s">
@@ -14126,7 +14138,7 @@
       <c r="A630" t="s">
         <v>292</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C630" s="2" t="s">
@@ -14143,7 +14155,7 @@
       <c r="A631" t="s">
         <v>293</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C631" s="2" t="s">
@@ -14160,7 +14172,7 @@
       <c r="A632" t="s">
         <v>72</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C632" s="2" t="s">
@@ -14177,7 +14189,7 @@
       <c r="A633" t="s">
         <v>294</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C633" s="2" t="s">
@@ -14194,7 +14206,7 @@
       <c r="A634" t="s">
         <v>73</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C634" s="2" t="s">
@@ -14211,7 +14223,7 @@
       <c r="A635" t="s">
         <v>295</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C635" s="2" t="s">
@@ -14228,7 +14240,7 @@
       <c r="A636" t="s">
         <v>296</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C636" s="2" t="s">
@@ -14245,7 +14257,7 @@
       <c r="A637" t="s">
         <v>297</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C637" s="2" t="s">
@@ -14262,7 +14274,7 @@
       <c r="A638" t="s">
         <v>297</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C638" s="2" t="s">
@@ -14279,7 +14291,7 @@
       <c r="A639" t="s">
         <v>298</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C639" s="2" t="s">
@@ -14296,7 +14308,7 @@
       <c r="A640" t="s">
         <v>115</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C640" s="2" t="s">
@@ -14313,7 +14325,7 @@
       <c r="A641" t="s">
         <v>299</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C641" s="2" t="s">
@@ -14330,7 +14342,7 @@
       <c r="A642" t="s">
         <v>300</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C642" s="2" t="s">
@@ -14347,7 +14359,7 @@
       <c r="A643" t="s">
         <v>301</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C643" s="2" t="s">
@@ -14364,7 +14376,7 @@
       <c r="A644" t="s">
         <v>302</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C644" s="2" t="s">
@@ -14381,7 +14393,7 @@
       <c r="A645" t="s">
         <v>303</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C645" s="2" t="s">
@@ -14398,7 +14410,7 @@
       <c r="A646" t="s">
         <v>128</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C646" s="2" t="s">
@@ -14415,7 +14427,7 @@
       <c r="A647" t="s">
         <v>129</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C647" s="2" t="s">
@@ -14432,7 +14444,7 @@
       <c r="A648" t="s">
         <v>304</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C648" s="2" t="s">
@@ -14449,7 +14461,7 @@
       <c r="A649" t="s">
         <v>305</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C649" s="2" t="s">
@@ -14466,7 +14478,7 @@
       <c r="A650" t="s">
         <v>306</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C650" s="2" t="s">
@@ -14483,7 +14495,7 @@
       <c r="A651" t="s">
         <v>307</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B651" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C651" s="2" t="s">
@@ -14500,7 +14512,7 @@
       <c r="A652" t="s">
         <v>308</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C652" s="2" t="s">
@@ -14517,7 +14529,7 @@
       <c r="A653" t="s">
         <v>308</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C653" s="2" t="s">
@@ -14534,7 +14546,7 @@
       <c r="A654" t="s">
         <v>308</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C654" s="2" t="s">
@@ -14551,7 +14563,7 @@
       <c r="A655" t="s">
         <v>285</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C655" s="2" t="s">
@@ -14568,7 +14580,7 @@
       <c r="A656" t="s">
         <v>309</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C656" s="2" t="s">
@@ -14585,7 +14597,7 @@
       <c r="A657" t="s">
         <v>310</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C657" s="2" t="s">
@@ -14602,7 +14614,7 @@
       <c r="A658" t="s">
         <v>311</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C658" s="2" t="s">
@@ -14619,7 +14631,7 @@
       <c r="A659" t="s">
         <v>294</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C659" s="2" t="s">
@@ -14636,7 +14648,7 @@
       <c r="A660" t="s">
         <v>295</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B660" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C660" s="2" t="s">
@@ -14653,7 +14665,7 @@
       <c r="A661" t="s">
         <v>297</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C661" s="2" t="s">
@@ -14670,7 +14682,7 @@
       <c r="A662" t="s">
         <v>312</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C662" s="2" t="s">
@@ -14687,7 +14699,7 @@
       <c r="A663" t="s">
         <v>313</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C663" s="2" t="s">
@@ -14704,7 +14716,7 @@
       <c r="A664" t="s">
         <v>314</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C664" s="2" t="s">
@@ -14721,7 +14733,7 @@
       <c r="A665" t="s">
         <v>314</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C665" s="2" t="s">
@@ -14738,7 +14750,7 @@
       <c r="A666" t="s">
         <v>315</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C666" s="2" t="s">
@@ -14755,7 +14767,7 @@
       <c r="A667" t="s">
         <v>316</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C667" s="2" t="s">
@@ -14772,7 +14784,7 @@
       <c r="A668" t="s">
         <v>317</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C668" s="2" t="s">
@@ -14789,7 +14801,7 @@
       <c r="A669" t="s">
         <v>318</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C669" s="2" t="s">
@@ -14806,7 +14818,7 @@
       <c r="A670" t="s">
         <v>319</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C670" s="2" t="s">
@@ -14823,7 +14835,7 @@
       <c r="A671" t="s">
         <v>320</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C671" s="2" t="s">
@@ -14840,7 +14852,7 @@
       <c r="A672" t="s">
         <v>321</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C672" s="2" t="s">
@@ -14857,7 +14869,7 @@
       <c r="A673" t="s">
         <v>322</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C673" s="2" t="s">
@@ -14874,7 +14886,7 @@
       <c r="A674" t="s">
         <v>323</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C674" s="2" t="s">
@@ -14891,7 +14903,7 @@
       <c r="A675" t="s">
         <v>324</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C675" s="2" t="s">
@@ -14908,7 +14920,7 @@
       <c r="A676" t="s">
         <v>325</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C676" s="2" t="s">
@@ -14925,7 +14937,7 @@
       <c r="A677" t="s">
         <v>326</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C677" s="2" t="s">
@@ -14942,7 +14954,7 @@
       <c r="A678" t="s">
         <v>327</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B678" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C678" s="2" t="s">
@@ -14959,7 +14971,7 @@
       <c r="A679" t="s">
         <v>328</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B679" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C679" s="2" t="s">
@@ -14973,13 +14985,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E679" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="equipamiento"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E679" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
